--- a/BCB520/posts/Certificate/DSCoreCurr.xlsx
+++ b/BCB520/posts/Certificate/DSCoreCurr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/Administration/Data Science/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/BCB520/posts/Certificate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDDBF8B-D3AB-0849-92F4-2C6F2D0C836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79646D3D-67D9-774F-80CE-77006FBE3366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{FF78C083-8493-3649-8AA9-87B43F3E71F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Course</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Asynchronous online</t>
   </si>
   <si>
-    <t>BCB 5xx</t>
-  </si>
-  <si>
     <t>INTR 509</t>
   </si>
   <si>
@@ -95,6 +92,15 @@
   </si>
   <si>
     <t>**Elective**</t>
+  </si>
+  <si>
+    <t>BCB 551</t>
+  </si>
+  <si>
+    <t>BCB 520</t>
+  </si>
+  <si>
+    <t>BCB 522</t>
   </si>
 </sst>
 </file>
@@ -181,10 +187,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,7 +510,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +537,7 @@
     </row>
     <row r="2" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -548,7 +554,7 @@
     </row>
     <row r="3" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -557,15 +563,15 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -574,15 +580,15 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -591,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -599,7 +605,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
